--- a/data/trans_camb/P57GLOBAL_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.436981798814364</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-17.656198515166</v>
+        <v>-17.65619851516601</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-5.111619855046756</v>
@@ -655,7 +655,7 @@
         <v>7.589989895385319</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-14.56168885434344</v>
+        <v>-14.56168885434342</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-8.887486952126588</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-17.85580923610206</v>
+        <v>-17.66528644414262</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.924922630936715</v>
+        <v>-2.042747220482025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-23.03896708997266</v>
+        <v>-22.79764132421331</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.949359673392854</v>
+        <v>-9.641629342316998</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.219055891541922</v>
+        <v>3.672257490095141</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.93415670092514</v>
+        <v>-18.9737992050906</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-12.26703711016831</v>
+        <v>-12.04828935678331</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.892678437746524</v>
+        <v>1.891480870131756</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-19.18212520325067</v>
+        <v>-19.3581416349264</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-7.820203267166927</v>
+        <v>-7.419088921455974</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.133617712476445</v>
+        <v>6.831611364037035</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-12.3585868674065</v>
+        <v>-12.18252769388293</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.2444203244353488</v>
+        <v>-0.5162939327874333</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.40275631140708</v>
+        <v>11.95457725725837</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-10.33610871716365</v>
+        <v>-10.35253824262409</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-5.495832741066986</v>
+        <v>-5.504057942433887</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.092982143283962</v>
+        <v>8.157110713077818</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-12.21745044894771</v>
+        <v>-12.52449333868637</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.03158643857557155</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2288471871840479</v>
+        <v>-0.228847187184048</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.06609441469626093</v>
@@ -760,7 +760,7 @@
         <v>0.09814030657830258</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1882859698313955</v>
+        <v>-0.1882859698313953</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1150557872804174</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2254885651932992</v>
+        <v>-0.2246287536542024</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02352245952779228</v>
+        <v>-0.02573873769358866</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2923899358121232</v>
+        <v>-0.2899105903275927</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1250100620854999</v>
+        <v>-0.1219088278870635</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03929223550575763</v>
+        <v>0.04517918942854614</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2389899143113563</v>
+        <v>-0.2395147687523202</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1550508991719023</v>
+        <v>-0.1536697815660618</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.0241298913520537</v>
+        <v>0.02323150478526611</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2456447534347801</v>
+        <v>-0.2474402761788663</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1048154490190138</v>
+        <v>-0.1020428024307988</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.09732322359535886</v>
+        <v>0.09235506306555973</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1641417224866141</v>
+        <v>-0.1640765051755096</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.003565420221826948</v>
+        <v>-0.006964561934526801</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.150809127818453</v>
+        <v>0.1586587404410296</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1352711502667747</v>
+        <v>-0.1381545690507654</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.07255134399489309</v>
+        <v>-0.07204945283438358</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1066497451026812</v>
+        <v>0.107056356262952</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1628813879745941</v>
+        <v>-0.1665609414077349</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>12.50063614611264</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.050124677950452</v>
+        <v>-5.050124677950429</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.3038176901526191</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.945460854937617</v>
+        <v>-5.516523948449144</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.215084665738757</v>
+        <v>7.279645971351279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.910218248145174</v>
+        <v>-8.64966603560161</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.251500755714676</v>
+        <v>-3.467512840047359</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>8.69340146196685</v>
+        <v>8.87174337184946</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.65320267272595</v>
+        <v>-8.800699461299951</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.321698234304819</v>
+        <v>-3.337685068435237</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>9.277359010725908</v>
+        <v>9.219556249509232</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-7.769193516821157</v>
+        <v>-7.799824086794008</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.516080417736791</v>
+        <v>3.14350044134257</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.26933602875087</v>
+        <v>15.51626758867932</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2959980716289354</v>
+        <v>0.04085353526726822</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.60435277305652</v>
+        <v>4.351031364435665</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.7997804423177</v>
+        <v>15.63133874139828</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.14309438245988</v>
+        <v>-0.8569189891237304</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.157066509831995</v>
+        <v>2.53301813495494</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>14.49916815284369</v>
+        <v>14.35087661394351</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.913727900973819</v>
+        <v>-1.912550550632646</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1690296746292624</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.06828619929207574</v>
+        <v>-0.06828619929207544</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.00421584730780908</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.08203621429534018</v>
+        <v>-0.07695170030104867</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.09966029103365558</v>
+        <v>0.1008962682766471</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1224642094550606</v>
+        <v>-0.1209839355906566</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04215671266452156</v>
+        <v>-0.04564148920559599</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1159376799152521</v>
+        <v>0.115778476758339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1144002491949162</v>
+        <v>-0.1158353021255123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04508027292772999</v>
+        <v>-0.0452150442613917</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1263449880793916</v>
+        <v>0.1250601023348207</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1060355593498034</v>
+        <v>-0.1076800860747606</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.03634084302934768</v>
+        <v>0.04609185661723939</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2267311766649324</v>
+        <v>0.2301043059261468</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.004135062379062273</v>
+        <v>0.0002237381126377363</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.06360044332656652</v>
+        <v>0.06064558496905115</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2201000946400333</v>
+        <v>0.2179358023718099</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0158012949344506</v>
+        <v>-0.01192406971367484</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0447606727106156</v>
+        <v>0.03596944365347925</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2065504846458243</v>
+        <v>0.2046251451014024</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.02691208739403221</v>
+        <v>-0.02692251507425182</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>19.88470797707572</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.5575286841350002</v>
+        <v>0.557528684134978</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.74044123452747</v>
+        <v>-3.762448388343404</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.96524134914539</v>
+        <v>16.95907481075442</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.534305089042265</v>
+        <v>-2.41738079665475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.216023626112356</v>
+        <v>-2.09760063752063</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>14.14667764472399</v>
+        <v>13.99179560187826</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.709268434814447</v>
+        <v>-6.463390415372309</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.628999523934733</v>
+        <v>-1.639027906924733</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>16.64361415893372</v>
+        <v>16.95323912899443</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.024625329748086</v>
+        <v>-2.999911339860213</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.582616015225104</v>
+        <v>6.528358457753915</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.00561078052632</v>
+        <v>25.80110548163033</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.548027294063045</v>
+        <v>8.404554209402772</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.59226766339144</v>
+        <v>7.240820358928859</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>22.82369472666346</v>
+        <v>22.70413652168027</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.361171854753517</v>
+        <v>3.284680663603811</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.555082504226962</v>
+        <v>5.554288389751039</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>23.24572088810136</v>
+        <v>23.08442142211105</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.026754341690603</v>
+        <v>4.334212706248092</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.30058966259135</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.00842795173267537</v>
+        <v>0.008427951732675035</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05548637647560615</v>
+        <v>-0.05542014879457356</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2514367511311279</v>
+        <v>0.2517773331624036</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03808209404552862</v>
+        <v>-0.03608709226876208</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0303594382719384</v>
+        <v>-0.02964273126270245</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2021480523774637</v>
+        <v>0.19742174049893</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.09585897620838245</v>
+        <v>-0.09043474153963504</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02398751581356151</v>
+        <v>-0.02418170283034627</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2417663080665985</v>
+        <v>0.2479971285058544</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04430246298355741</v>
+        <v>-0.04426752808378492</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1070774406609962</v>
+        <v>0.1050233117534146</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4220552900830495</v>
+        <v>0.4184646882283495</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1389564772347038</v>
+        <v>0.1369528297598794</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1163534841974929</v>
+        <v>0.1119710022266655</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3594745346476451</v>
+        <v>0.3495986210233989</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05204212938181192</v>
+        <v>0.05146707564069695</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08581714599879009</v>
+        <v>0.08601173427249094</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.363564291218735</v>
+        <v>0.3614975470213229</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.06323999545449555</v>
+        <v>0.06736082336643059</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>11.67448987178574</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-7.388447875727799</v>
+        <v>-7.388447875727788</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>8.086786160941228</v>
@@ -1306,7 +1306,7 @@
         <v>11.26915476719982</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-6.930193128632622</v>
+        <v>-6.930193128632611</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6489736160527378</v>
+        <v>0.4565553838233043</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.098155139101256</v>
+        <v>7.123902428902184</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.91642985994717</v>
+        <v>-10.6893380494698</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.497270901669252</v>
+        <v>7.486383519589062</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.915218279773499</v>
+        <v>7.916406425006516</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-11.25541971250667</v>
+        <v>-11.37507593392248</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.250336793493481</v>
+        <v>5.140168472741055</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>8.692707514271332</v>
+        <v>8.403199833065344</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-10.00565590658902</v>
+        <v>-9.94140366831952</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.852106579867451</v>
+        <v>8.815482544480957</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.91127117901944</v>
+        <v>14.82937994707264</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.046822725046295</v>
+        <v>-1.822164334232055</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.80709723962204</v>
+        <v>14.92148093305119</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>15.68133284900739</v>
+        <v>15.59100170744306</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.309574115323713</v>
+        <v>-3.588762610135652</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.72847206545126</v>
+        <v>10.50317016434274</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>14.00935556745059</v>
+        <v>13.87774583103824</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.235034897054586</v>
+        <v>-3.837745928336778</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1655294804917658</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1047588333144565</v>
+        <v>-0.1047588333144563</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.115201558493484</v>
@@ -1411,7 +1411,7 @@
         <v>0.1605364809021477</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.0987251342115851</v>
+        <v>-0.09872513421158494</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.01145584270078871</v>
+        <v>0.007209027767362375</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.09858417236732649</v>
+        <v>0.1007312169398419</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1520619363160502</v>
+        <v>-0.1487349936551198</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1043000578043061</v>
+        <v>0.10440133395231</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1098008251100934</v>
+        <v>0.1095493124204371</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1564443965396442</v>
+        <v>-0.1553995858474684</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07361697311315053</v>
+        <v>0.07096086619025127</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1218020836444477</v>
+        <v>0.1184357555009903</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1388720172860002</v>
+        <v>-0.1392076176234044</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1327687752052501</v>
+        <v>0.1311949964200415</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2192943689170719</v>
+        <v>0.2191697253887558</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.03008979954792293</v>
+        <v>-0.02666789204737767</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2188200439442603</v>
+        <v>0.2209509392669821</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2301428675887094</v>
+        <v>0.2290662849269617</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.04814795611718913</v>
+        <v>-0.05155040935781951</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1567059526810007</v>
+        <v>0.1514851359073795</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.203902345846312</v>
+        <v>0.2025145526598075</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.06102613136488913</v>
+        <v>-0.05563032273344376</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>12.49459332316891</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-6.975355720159781</v>
+        <v>-6.975355720159793</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.7668008748590416</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.75691113860666</v>
+        <v>-3.686783246798833</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.501985235008503</v>
+        <v>9.430099428360753</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.491426100039146</v>
+        <v>-8.637419662556491</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.9373820883117328</v>
+        <v>1.037559112168772</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>10.45461885767644</v>
+        <v>10.67317062784197</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-9.305412852294786</v>
+        <v>-9.086664719447986</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.8803872800834392</v>
+        <v>-0.8589762894703501</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>10.70716664797944</v>
+        <v>10.53228219844673</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.186641092292952</v>
+        <v>-8.129159037475592</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7618063400125151</v>
+        <v>0.7895865630787868</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.41159355576635</v>
+        <v>13.4546578742998</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.694065907798929</v>
+        <v>-3.715051934845825</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.089172470893672</v>
+        <v>5.300953906172599</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.36330719600461</v>
+        <v>14.50324489308224</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.830351732489359</v>
+        <v>-4.611394065044027</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.43508639173193</v>
+        <v>2.369330962892373</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.64822641599323</v>
+        <v>13.42860977627928</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-4.834728566805482</v>
+        <v>-4.839700825178699</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1728324597632623</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.0964871649406511</v>
+        <v>-0.09648716494065125</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.01074314625440021</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05284482496551965</v>
+        <v>-0.0513904510294728</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1334135584889669</v>
+        <v>0.1311056590783595</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1186706853171444</v>
+        <v>-0.1209067194665625</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.0127683574656401</v>
+        <v>0.01408495131741528</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1423605351258026</v>
+        <v>0.1462799450693128</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1257136085138799</v>
+        <v>-0.1241299398118413</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01200312481899671</v>
+        <v>-0.01194269819822297</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1482862721955902</v>
+        <v>0.14571631642426</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1135736248215027</v>
+        <v>-0.1130312530886479</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01093761786838029</v>
+        <v>0.01137779649991603</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1941615636645345</v>
+        <v>0.1939795477530782</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.05332243996514954</v>
+        <v>-0.05373084601261258</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.07183297713244061</v>
+        <v>0.07424816002272551</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2028492962195564</v>
+        <v>0.2041591737269377</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.06697707454600414</v>
+        <v>-0.0653744364116743</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03466302676446865</v>
+        <v>0.03373034430123582</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1935473704171365</v>
+        <v>0.1905263315140635</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.06842093855051273</v>
+        <v>-0.06888294594804897</v>
       </c>
     </row>
     <row r="34">
